--- a/Semana 31 agosto - 4 septiembre/Stand_Up_Meeitng_Week_2.xlsx
+++ b/Semana 31 agosto - 4 septiembre/Stand_Up_Meeitng_Week_2.xlsx
@@ -5,35 +5,27 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariana\Documents\GitHub\Ingenieria_Software\Semana 31 agosto - 4 septiembre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paula\Documents\GitHub\Ingenieria_Software\Semana 31 agosto - 4 septiembre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CD0AAF4-671E-4F71-8E84-A92A3950F653}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB4BB5FC-3AE1-44C2-814E-804819EBA0CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3320EE79-9243-42E8-8E5F-EF80DE6A9110}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3320EE79-9243-42E8-8E5F-EF80DE6A9110}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
   <si>
     <t xml:space="preserve"> MIEMBRO</t>
   </si>
@@ -104,6 +96,15 @@
   </si>
   <si>
     <t>SEMANA 2</t>
+  </si>
+  <si>
+    <t>Nada</t>
+  </si>
+  <si>
+    <t>Ninguna</t>
+  </si>
+  <si>
+    <t>Descargar Adobe XD y trabajar en mis bocetos</t>
   </si>
 </sst>
 </file>
@@ -720,28 +721,28 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G2"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.453125" customWidth="1"/>
-    <col min="2" max="2" width="24.36328125" customWidth="1"/>
-    <col min="3" max="3" width="27.54296875" customWidth="1"/>
-    <col min="4" max="4" width="26.36328125" customWidth="1"/>
-    <col min="5" max="5" width="23.36328125" customWidth="1"/>
-    <col min="6" max="6" width="23.08984375" customWidth="1"/>
-    <col min="7" max="7" width="22.1796875" customWidth="1"/>
-    <col min="8" max="8" width="13.7265625" customWidth="1"/>
-    <col min="9" max="9" width="13.26953125" customWidth="1"/>
-    <col min="10" max="10" width="10.81640625" customWidth="1"/>
-    <col min="11" max="11" width="4.6328125" customWidth="1"/>
-    <col min="12" max="12" width="9.26953125" customWidth="1"/>
+    <col min="1" max="1" width="26.44140625" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="3" max="3" width="27.5546875" customWidth="1"/>
+    <col min="4" max="4" width="26.33203125" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" customWidth="1"/>
+    <col min="6" max="6" width="23.109375" customWidth="1"/>
+    <col min="7" max="7" width="22.21875" customWidth="1"/>
+    <col min="8" max="8" width="13.77734375" customWidth="1"/>
+    <col min="9" max="9" width="13.21875" customWidth="1"/>
+    <col min="10" max="10" width="10.77734375" customWidth="1"/>
+    <col min="11" max="11" width="4.6640625" customWidth="1"/>
+    <col min="12" max="12" width="9.21875" customWidth="1"/>
     <col min="13" max="13" width="11" customWidth="1"/>
-    <col min="14" max="14" width="10.26953125" customWidth="1"/>
+    <col min="14" max="14" width="10.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>15</v>
       </c>
@@ -759,7 +760,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="21"/>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
@@ -775,7 +776,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
@@ -798,7 +799,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>10</v>
       </c>
@@ -811,7 +812,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="17"/>
       <c r="B5" s="12" t="s">
         <v>8</v>
@@ -822,7 +823,7 @@
       <c r="F5" s="6"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="16"/>
       <c r="B6" s="3" t="s">
         <v>9</v>
@@ -833,7 +834,7 @@
       <c r="F6" s="7"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>11</v>
       </c>
@@ -846,7 +847,7 @@
       <c r="F7" s="6"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="15"/>
       <c r="B8" s="12" t="s">
         <v>8</v>
@@ -857,7 +858,7 @@
       <c r="F8" s="6"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="16"/>
       <c r="B9" s="3" t="s">
         <v>9</v>
@@ -868,42 +869,48 @@
       <c r="F9" s="7"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="6"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="15"/>
       <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="6"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="16"/>
       <c r="B12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="7"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
         <v>13</v>
       </c>
@@ -916,7 +923,7 @@
       <c r="F13" s="6"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="15"/>
       <c r="B14" s="12" t="s">
         <v>8</v>
@@ -927,7 +934,7 @@
       <c r="F14" s="6"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="16"/>
       <c r="B15" s="3" t="s">
         <v>9</v>
@@ -938,7 +945,7 @@
       <c r="F15" s="7"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
         <v>14</v>
       </c>
@@ -951,7 +958,7 @@
       <c r="F16" s="6"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="15"/>
       <c r="B17" s="12" t="s">
         <v>8</v>
@@ -962,7 +969,7 @@
       <c r="F17" s="6"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="16"/>
       <c r="B18" s="4" t="s">
         <v>9</v>

--- a/Semana 31 agosto - 4 septiembre/Stand_Up_Meeitng_Week_2.xlsx
+++ b/Semana 31 agosto - 4 septiembre/Stand_Up_Meeitng_Week_2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paula\Documents\GitHub\Ingenieria_Software\Semana 31 agosto - 4 septiembre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mythe\Documents\GitHub\Ingenieria_Software\Semana 31 agosto - 4 septiembre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB4BB5FC-3AE1-44C2-814E-804819EBA0CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD6E4862-FBA5-4C55-AC58-D155836E99FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3320EE79-9243-42E8-8E5F-EF80DE6A9110}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3320EE79-9243-42E8-8E5F-EF80DE6A9110}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
   <si>
     <t xml:space="preserve"> MIEMBRO</t>
   </si>
@@ -105,6 +105,18 @@
   </si>
   <si>
     <t>Descargar Adobe XD y trabajar en mis bocetos</t>
+  </si>
+  <si>
+    <t>Leer parte de las tareas</t>
+  </si>
+  <si>
+    <t>Resumir las lecturas sobre el SEMAT, mirar que es IGLUW</t>
+  </si>
+  <si>
+    <t>Se logro lo propuesto</t>
+  </si>
+  <si>
+    <t>Asistir y aportar a la reunion para practicar la exposicion de lo que necesitamos para la clase de mañana</t>
   </si>
 </sst>
 </file>
@@ -422,7 +434,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -721,28 +733,28 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.44140625" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" customWidth="1"/>
-    <col min="3" max="3" width="27.5546875" customWidth="1"/>
-    <col min="4" max="4" width="26.33203125" customWidth="1"/>
-    <col min="5" max="5" width="23.33203125" customWidth="1"/>
-    <col min="6" max="6" width="23.109375" customWidth="1"/>
-    <col min="7" max="7" width="22.21875" customWidth="1"/>
-    <col min="8" max="8" width="13.77734375" customWidth="1"/>
-    <col min="9" max="9" width="13.21875" customWidth="1"/>
-    <col min="10" max="10" width="10.77734375" customWidth="1"/>
-    <col min="11" max="11" width="4.6640625" customWidth="1"/>
-    <col min="12" max="12" width="9.21875" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" customWidth="1"/>
+    <col min="11" max="11" width="4.7109375" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" customWidth="1"/>
     <col min="13" max="13" width="11" customWidth="1"/>
-    <col min="14" max="14" width="10.21875" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>15</v>
       </c>
@@ -760,7 +772,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="21"/>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
@@ -776,7 +788,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
@@ -799,7 +811,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>10</v>
       </c>
@@ -812,7 +824,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="B5" s="12" t="s">
         <v>8</v>
@@ -823,7 +835,7 @@
       <c r="F5" s="6"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16"/>
       <c r="B6" s="3" t="s">
         <v>9</v>
@@ -834,42 +846,60 @@
       <c r="F6" s="7"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="F7" s="6"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
       <c r="B8" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="F8" s="6"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="16"/>
       <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="F9" s="7"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>12</v>
       </c>
@@ -884,7 +914,7 @@
       <c r="F10" s="6"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
       <c r="B11" s="12" t="s">
         <v>8</v>
@@ -897,7 +927,7 @@
       <c r="F11" s="6"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16"/>
       <c r="B12" s="3" t="s">
         <v>9</v>
@@ -910,7 +940,7 @@
       <c r="F12" s="7"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>13</v>
       </c>
@@ -923,7 +953,7 @@
       <c r="F13" s="6"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
       <c r="B14" s="12" t="s">
         <v>8</v>
@@ -934,7 +964,7 @@
       <c r="F14" s="6"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="16"/>
       <c r="B15" s="3" t="s">
         <v>9</v>
@@ -945,7 +975,7 @@
       <c r="F15" s="7"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>14</v>
       </c>
@@ -958,7 +988,7 @@
       <c r="F16" s="6"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
       <c r="B17" s="12" t="s">
         <v>8</v>
@@ -969,7 +999,7 @@
       <c r="F17" s="6"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="16"/>
       <c r="B18" s="4" t="s">
         <v>9</v>

--- a/Semana 31 agosto - 4 septiembre/Stand_Up_Meeitng_Week_2.xlsx
+++ b/Semana 31 agosto - 4 septiembre/Stand_Up_Meeitng_Week_2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mythe\Documents\GitHub\Ingenieria_Software\Semana 31 agosto - 4 septiembre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paula\Documents\GitHub\Ingenieria_Software\Semana 31 agosto - 4 septiembre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD6E4862-FBA5-4C55-AC58-D155836E99FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D1511C-D6AD-4A0F-8F62-8FFED93AB183}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3320EE79-9243-42E8-8E5F-EF80DE6A9110}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3320EE79-9243-42E8-8E5F-EF80DE6A9110}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="27">
   <si>
     <t xml:space="preserve"> MIEMBRO</t>
   </si>
@@ -117,6 +117,18 @@
   </si>
   <si>
     <t>Asistir y aportar a la reunion para practicar la exposicion de lo que necesitamos para la clase de mañana</t>
+  </si>
+  <si>
+    <t>Mirar sobre el IGLUW, leer una parte del SEMAT</t>
+  </si>
+  <si>
+    <t>Se cumplió el objetivo</t>
+  </si>
+  <si>
+    <t>Estoy medio enferma, pero va</t>
+  </si>
+  <si>
+    <t>Reunión con los compañeros, aportar para la exposición de mañana</t>
   </si>
 </sst>
 </file>
@@ -434,7 +446,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -733,28 +745,28 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" customWidth="1"/>
-    <col min="5" max="5" width="23.28515625" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" customWidth="1"/>
-    <col min="11" max="11" width="4.7109375" customWidth="1"/>
-    <col min="12" max="12" width="9.28515625" customWidth="1"/>
+    <col min="1" max="1" width="26.44140625" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="3" max="3" width="27.5546875" customWidth="1"/>
+    <col min="4" max="4" width="26.33203125" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" customWidth="1"/>
+    <col min="6" max="6" width="23.109375" customWidth="1"/>
+    <col min="7" max="7" width="22.33203125" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" customWidth="1"/>
+    <col min="11" max="11" width="4.6640625" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" customWidth="1"/>
     <col min="13" max="13" width="11" customWidth="1"/>
-    <col min="14" max="14" width="10.28515625" customWidth="1"/>
+    <col min="14" max="14" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>15</v>
       </c>
@@ -772,7 +784,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="21"/>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
@@ -788,7 +800,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
@@ -811,7 +823,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>10</v>
       </c>
@@ -824,7 +836,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="17"/>
       <c r="B5" s="12" t="s">
         <v>8</v>
@@ -835,7 +847,7 @@
       <c r="F5" s="6"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="16"/>
       <c r="B6" s="3" t="s">
         <v>9</v>
@@ -846,7 +858,7 @@
       <c r="F6" s="7"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>11</v>
       </c>
@@ -865,7 +877,7 @@
       <c r="F7" s="6"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="15"/>
       <c r="B8" s="12" t="s">
         <v>8</v>
@@ -882,7 +894,7 @@
       <c r="F8" s="6"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="16"/>
       <c r="B9" s="3" t="s">
         <v>9</v>
@@ -899,7 +911,7 @@
       <c r="F9" s="7"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>12</v>
       </c>
@@ -909,12 +921,16 @@
       <c r="C10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="F10" s="6"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="15"/>
       <c r="B11" s="12" t="s">
         <v>8</v>
@@ -922,12 +938,16 @@
       <c r="C11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="F11" s="6"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="16"/>
       <c r="B12" s="3" t="s">
         <v>9</v>
@@ -935,12 +955,16 @@
       <c r="C12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="F12" s="7"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
         <v>13</v>
       </c>
@@ -953,7 +977,7 @@
       <c r="F13" s="6"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="15"/>
       <c r="B14" s="12" t="s">
         <v>8</v>
@@ -964,7 +988,7 @@
       <c r="F14" s="6"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="16"/>
       <c r="B15" s="3" t="s">
         <v>9</v>
@@ -975,7 +999,7 @@
       <c r="F15" s="7"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
         <v>14</v>
       </c>
@@ -988,7 +1012,7 @@
       <c r="F16" s="6"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="15"/>
       <c r="B17" s="12" t="s">
         <v>8</v>
@@ -999,7 +1023,7 @@
       <c r="F17" s="6"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="16"/>
       <c r="B18" s="4" t="s">
         <v>9</v>

--- a/Semana 31 agosto - 4 septiembre/Stand_Up_Meeitng_Week_2.xlsx
+++ b/Semana 31 agosto - 4 septiembre/Stand_Up_Meeitng_Week_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paula\Documents\GitHub\Ingenieria_Software\Semana 31 agosto - 4 septiembre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D1511C-D6AD-4A0F-8F62-8FFED93AB183}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B33BA4-9261-4907-AEC6-C21F6D06B694}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3320EE79-9243-42E8-8E5F-EF80DE6A9110}"/>
   </bookViews>
@@ -128,7 +128,7 @@
     <t>Estoy medio enferma, pero va</t>
   </si>
   <si>
-    <t>Reunión con los compañeros, aportar para la exposición de mañana</t>
+    <t>Reunión con los compañeros, aportar para la exposición de mañana y leer otra parte del SEMAT.</t>
   </si>
 </sst>
 </file>
@@ -745,7 +745,7 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Semana 31 agosto - 4 septiembre/Stand_Up_Meeitng_Week_2.xlsx
+++ b/Semana 31 agosto - 4 septiembre/Stand_Up_Meeitng_Week_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paula\Documents\GitHub\Ingenieria_Software\Semana 31 agosto - 4 septiembre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B33BA4-9261-4907-AEC6-C21F6D06B694}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35EF7FBE-1B2F-4E79-95F6-189BA5FDA3D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3320EE79-9243-42E8-8E5F-EF80DE6A9110}"/>
   </bookViews>

--- a/Semana 31 agosto - 4 septiembre/Stand_Up_Meeitng_Week_2.xlsx
+++ b/Semana 31 agosto - 4 septiembre/Stand_Up_Meeitng_Week_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mythe\Documents\GitHub\Ingenieria_Software\Semana 31 agosto - 4 septiembre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guill\Documents\GitHub\Ingenieria_Software\Semana 31 agosto - 4 septiembre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD6E4862-FBA5-4C55-AC58-D155836E99FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FEE063A-0CFD-4700-BC71-ABCE2A08CB71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3320EE79-9243-42E8-8E5F-EF80DE6A9110}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3320EE79-9243-42E8-8E5F-EF80DE6A9110}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="26">
   <si>
     <t xml:space="preserve"> MIEMBRO</t>
   </si>
@@ -117,6 +117,15 @@
   </si>
   <si>
     <t>Asistir y aportar a la reunion para practicar la exposicion de lo que necesitamos para la clase de mañana</t>
+  </si>
+  <si>
+    <t>Entrega de los bocetos</t>
+  </si>
+  <si>
+    <t>Investigar un poco más sobre SEMAT y IGLUW</t>
+  </si>
+  <si>
+    <t>Asistir a la reunión y proponer ideas</t>
   </si>
 </sst>
 </file>
@@ -434,7 +443,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -733,28 +742,28 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" customWidth="1"/>
-    <col min="5" max="5" width="23.28515625" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" customWidth="1"/>
-    <col min="11" max="11" width="4.7109375" customWidth="1"/>
-    <col min="12" max="12" width="9.28515625" customWidth="1"/>
+    <col min="1" max="1" width="26.44140625" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="3" max="3" width="27.5546875" customWidth="1"/>
+    <col min="4" max="4" width="85.44140625" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" customWidth="1"/>
+    <col min="6" max="6" width="23.109375" customWidth="1"/>
+    <col min="7" max="7" width="22.33203125" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" customWidth="1"/>
+    <col min="11" max="11" width="4.6640625" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" customWidth="1"/>
     <col min="13" max="13" width="11" customWidth="1"/>
-    <col min="14" max="14" width="10.28515625" customWidth="1"/>
+    <col min="14" max="14" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>15</v>
       </c>
@@ -772,7 +781,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="21"/>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
@@ -788,7 +797,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
@@ -811,7 +820,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>10</v>
       </c>
@@ -824,7 +833,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="17"/>
       <c r="B5" s="12" t="s">
         <v>8</v>
@@ -835,7 +844,7 @@
       <c r="F5" s="6"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="16"/>
       <c r="B6" s="3" t="s">
         <v>9</v>
@@ -846,7 +855,7 @@
       <c r="F6" s="7"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>11</v>
       </c>
@@ -865,7 +874,7 @@
       <c r="F7" s="6"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="15"/>
       <c r="B8" s="12" t="s">
         <v>8</v>
@@ -882,7 +891,7 @@
       <c r="F8" s="6"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="16"/>
       <c r="B9" s="3" t="s">
         <v>9</v>
@@ -899,7 +908,7 @@
       <c r="F9" s="7"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>12</v>
       </c>
@@ -914,7 +923,7 @@
       <c r="F10" s="6"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="15"/>
       <c r="B11" s="12" t="s">
         <v>8</v>
@@ -927,7 +936,7 @@
       <c r="F11" s="6"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="16"/>
       <c r="B12" s="3" t="s">
         <v>9</v>
@@ -940,7 +949,7 @@
       <c r="F12" s="7"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
         <v>13</v>
       </c>
@@ -953,7 +962,7 @@
       <c r="F13" s="6"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="15"/>
       <c r="B14" s="12" t="s">
         <v>8</v>
@@ -964,7 +973,7 @@
       <c r="F14" s="6"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="16"/>
       <c r="B15" s="3" t="s">
         <v>9</v>
@@ -975,38 +984,56 @@
       <c r="F15" s="7"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="F16" s="6"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="15"/>
       <c r="B17" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="F17" s="6"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="16"/>
       <c r="B18" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
+      <c r="C18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="F18" s="8"/>
       <c r="G18" s="4"/>
     </row>

--- a/Semana 31 agosto - 4 septiembre/Stand_Up_Meeitng_Week_2.xlsx
+++ b/Semana 31 agosto - 4 septiembre/Stand_Up_Meeitng_Week_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guill\Documents\GitHub\Ingenieria_Software\Semana 31 agosto - 4 septiembre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mythe\Documents\GitHub\Ingenieria_Software\Semana 31 agosto - 4 septiembre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FEE063A-0CFD-4700-BC71-ABCE2A08CB71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B187ACA-6493-4328-B45A-BCB01874C653}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3320EE79-9243-42E8-8E5F-EF80DE6A9110}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3320EE79-9243-42E8-8E5F-EF80DE6A9110}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
   <si>
     <t xml:space="preserve"> MIEMBRO</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>Asistir a la reunión y proponer ideas</t>
+  </si>
+  <si>
+    <t>Exploner lo planteado y tomar las sugerencias del profe</t>
   </si>
 </sst>
 </file>
@@ -443,7 +446,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -741,29 +744,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E4E8726-24EF-4B21-B937-D55FA5E6EA95}">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.44140625" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" customWidth="1"/>
-    <col min="3" max="3" width="27.5546875" customWidth="1"/>
-    <col min="4" max="4" width="85.44140625" customWidth="1"/>
-    <col min="5" max="5" width="23.33203125" customWidth="1"/>
-    <col min="6" max="6" width="23.109375" customWidth="1"/>
-    <col min="7" max="7" width="22.33203125" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" customWidth="1"/>
-    <col min="11" max="11" width="4.6640625" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="4" max="4" width="85.42578125" customWidth="1"/>
+    <col min="5" max="5" width="94.42578125" customWidth="1"/>
+    <col min="6" max="6" width="54" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" customWidth="1"/>
+    <col min="11" max="11" width="4.7109375" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" customWidth="1"/>
     <col min="13" max="13" width="11" customWidth="1"/>
-    <col min="14" max="14" width="10.33203125" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>15</v>
       </c>
@@ -781,7 +784,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="21"/>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
@@ -797,7 +800,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
@@ -820,7 +823,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>10</v>
       </c>
@@ -833,7 +836,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="B5" s="12" t="s">
         <v>8</v>
@@ -844,7 +847,7 @@
       <c r="F5" s="6"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16"/>
       <c r="B6" s="3" t="s">
         <v>9</v>
@@ -855,7 +858,7 @@
       <c r="F6" s="7"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>11</v>
       </c>
@@ -871,10 +874,12 @@
       <c r="E7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="6"/>
+      <c r="F7" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
       <c r="B8" s="12" t="s">
         <v>8</v>
@@ -888,10 +893,12 @@
       <c r="E8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="6"/>
+      <c r="F8" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="16"/>
       <c r="B9" s="3" t="s">
         <v>9</v>
@@ -905,10 +912,12 @@
       <c r="E9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="7"/>
+      <c r="F9" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>12</v>
       </c>
@@ -923,7 +932,7 @@
       <c r="F10" s="6"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
       <c r="B11" s="12" t="s">
         <v>8</v>
@@ -936,7 +945,7 @@
       <c r="F11" s="6"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16"/>
       <c r="B12" s="3" t="s">
         <v>9</v>
@@ -949,7 +958,7 @@
       <c r="F12" s="7"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>13</v>
       </c>
@@ -962,7 +971,7 @@
       <c r="F13" s="6"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
       <c r="B14" s="12" t="s">
         <v>8</v>
@@ -973,7 +982,7 @@
       <c r="F14" s="6"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="16"/>
       <c r="B15" s="3" t="s">
         <v>9</v>
@@ -984,7 +993,7 @@
       <c r="F15" s="7"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>14</v>
       </c>
@@ -1003,7 +1012,7 @@
       <c r="F16" s="6"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
       <c r="B17" s="12" t="s">
         <v>8</v>
@@ -1020,7 +1029,7 @@
       <c r="F17" s="6"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="16"/>
       <c r="B18" s="4" t="s">
         <v>9</v>

--- a/Semana 31 agosto - 4 septiembre/Stand_Up_Meeitng_Week_2.xlsx
+++ b/Semana 31 agosto - 4 septiembre/Stand_Up_Meeitng_Week_2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mythe\Documents\GitHub\Ingenieria_Software\Semana 31 agosto - 4 septiembre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariana\Documents\GitHub\Ingenieria_Software\Semana 31 agosto - 4 septiembre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B187ACA-6493-4328-B45A-BCB01874C653}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C95B5DD-B7E8-4C81-B600-9215BCA04012}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3320EE79-9243-42E8-8E5F-EF80DE6A9110}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3320EE79-9243-42E8-8E5F-EF80DE6A9110}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="37">
   <si>
     <t xml:space="preserve"> MIEMBRO</t>
   </si>
@@ -129,6 +129,36 @@
   </si>
   <si>
     <t>Exploner lo planteado y tomar las sugerencias del profe</t>
+  </si>
+  <si>
+    <t>Leer libro del semat</t>
+  </si>
+  <si>
+    <t>Hacer la cara principal del software</t>
+  </si>
+  <si>
+    <t>Diseño interface Software</t>
+  </si>
+  <si>
+    <t>Justificacion requisitos State holder</t>
+  </si>
+  <si>
+    <t>Justificacion requisitos</t>
+  </si>
+  <si>
+    <t>Reunion de equipo para exposicion informativa del dia jueves</t>
+  </si>
+  <si>
+    <t>Exposcion y acatar recomendaciones</t>
+  </si>
+  <si>
+    <t>Cancelacion de clase dia jueves</t>
+  </si>
+  <si>
+    <t>Boceto diagramas</t>
+  </si>
+  <si>
+    <t>Lectura semat</t>
   </si>
 </sst>
 </file>
@@ -446,7 +476,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -744,29 +774,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E4E8726-24EF-4B21-B937-D55FA5E6EA95}">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" customWidth="1"/>
-    <col min="4" max="4" width="85.42578125" customWidth="1"/>
-    <col min="5" max="5" width="94.42578125" customWidth="1"/>
+    <col min="1" max="1" width="26.453125" customWidth="1"/>
+    <col min="2" max="2" width="24.26953125" customWidth="1"/>
+    <col min="3" max="3" width="30.26953125" customWidth="1"/>
+    <col min="4" max="4" width="70.36328125" customWidth="1"/>
+    <col min="5" max="5" width="94.453125" customWidth="1"/>
     <col min="6" max="6" width="54" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" customWidth="1"/>
-    <col min="11" max="11" width="4.7109375" customWidth="1"/>
-    <col min="12" max="12" width="9.28515625" customWidth="1"/>
+    <col min="7" max="7" width="22.26953125" customWidth="1"/>
+    <col min="8" max="8" width="13.7265625" customWidth="1"/>
+    <col min="9" max="9" width="13.26953125" customWidth="1"/>
+    <col min="10" max="10" width="10.7265625" customWidth="1"/>
+    <col min="11" max="11" width="4.7265625" customWidth="1"/>
+    <col min="12" max="12" width="9.26953125" customWidth="1"/>
     <col min="13" max="13" width="11" customWidth="1"/>
-    <col min="14" max="14" width="10.28515625" customWidth="1"/>
+    <col min="14" max="14" width="10.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
         <v>15</v>
       </c>
@@ -784,7 +814,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="21"/>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
@@ -800,7 +830,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
@@ -823,42 +853,72 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="17" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="17"/>
       <c r="B5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="16"/>
       <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
         <v>11</v>
       </c>
@@ -877,9 +937,11 @@
       <c r="F7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G7" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="15"/>
       <c r="B8" s="12" t="s">
         <v>8</v>
@@ -896,9 +958,11 @@
       <c r="F8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G8" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="16"/>
       <c r="B9" s="3" t="s">
         <v>9</v>
@@ -915,9 +979,11 @@
       <c r="F9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G9" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="14" t="s">
         <v>12</v>
       </c>
@@ -932,7 +998,7 @@
       <c r="F10" s="6"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="15"/>
       <c r="B11" s="12" t="s">
         <v>8</v>
@@ -945,7 +1011,7 @@
       <c r="F11" s="6"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="16"/>
       <c r="B12" s="3" t="s">
         <v>9</v>
@@ -958,7 +1024,7 @@
       <c r="F12" s="7"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="14" t="s">
         <v>13</v>
       </c>
@@ -971,7 +1037,7 @@
       <c r="F13" s="6"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="15"/>
       <c r="B14" s="12" t="s">
         <v>8</v>
@@ -982,7 +1048,7 @@
       <c r="F14" s="6"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="16"/>
       <c r="B15" s="3" t="s">
         <v>9</v>
@@ -993,7 +1059,7 @@
       <c r="F15" s="7"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="14" t="s">
         <v>14</v>
       </c>
@@ -1012,7 +1078,7 @@
       <c r="F16" s="6"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="15"/>
       <c r="B17" s="12" t="s">
         <v>8</v>
@@ -1029,7 +1095,7 @@
       <c r="F17" s="6"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="16"/>
       <c r="B18" s="4" t="s">
         <v>9</v>

--- a/Semana 31 agosto - 4 septiembre/Stand_Up_Meeitng_Week_2.xlsx
+++ b/Semana 31 agosto - 4 septiembre/Stand_Up_Meeitng_Week_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariana\Documents\GitHub\Ingenieria_Software\Semana 31 agosto - 4 septiembre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\57302\Documents\GitHub\Ingenieria_Software\Semana 31 agosto - 4 septiembre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C95B5DD-B7E8-4C81-B600-9215BCA04012}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28DB8914-FA44-4FA7-9086-55727F5CB30B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3320EE79-9243-42E8-8E5F-EF80DE6A9110}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3320EE79-9243-42E8-8E5F-EF80DE6A9110}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="43">
   <si>
     <t xml:space="preserve"> MIEMBRO</t>
   </si>
@@ -159,6 +159,24 @@
   </si>
   <si>
     <t>Lectura semat</t>
+  </si>
+  <si>
+    <t>Realizar un trabajo base para el diseño de la pagina web de nuestro projecto</t>
+  </si>
+  <si>
+    <t>Realizar el trabajo grafico del SEMAT</t>
+  </si>
+  <si>
+    <t>Diseño grafico SEMAT</t>
+  </si>
+  <si>
+    <t>Asistir y aportar a la Reunion programada para actualizacion y evaluacion del projecto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Realizar la exposicion en clase y evaluar sugerencias </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asistir a la reunion y comenzar a bosetear los diagramas </t>
   </si>
 </sst>
 </file>
@@ -774,29 +792,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E4E8726-24EF-4B21-B937-D55FA5E6EA95}">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.453125" customWidth="1"/>
-    <col min="2" max="2" width="24.26953125" customWidth="1"/>
-    <col min="3" max="3" width="30.26953125" customWidth="1"/>
-    <col min="4" max="4" width="70.36328125" customWidth="1"/>
-    <col min="5" max="5" width="94.453125" customWidth="1"/>
+    <col min="1" max="1" width="26.44140625" customWidth="1"/>
+    <col min="2" max="2" width="24.21875" customWidth="1"/>
+    <col min="3" max="3" width="63.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="70.33203125" customWidth="1"/>
+    <col min="5" max="5" width="94.44140625" customWidth="1"/>
     <col min="6" max="6" width="54" customWidth="1"/>
-    <col min="7" max="7" width="22.26953125" customWidth="1"/>
-    <col min="8" max="8" width="13.7265625" customWidth="1"/>
-    <col min="9" max="9" width="13.26953125" customWidth="1"/>
-    <col min="10" max="10" width="10.7265625" customWidth="1"/>
-    <col min="11" max="11" width="4.7265625" customWidth="1"/>
-    <col min="12" max="12" width="9.26953125" customWidth="1"/>
+    <col min="7" max="7" width="47.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.77734375" customWidth="1"/>
+    <col min="9" max="9" width="13.21875" customWidth="1"/>
+    <col min="10" max="10" width="10.77734375" customWidth="1"/>
+    <col min="11" max="11" width="4.77734375" customWidth="1"/>
+    <col min="12" max="12" width="9.21875" customWidth="1"/>
     <col min="13" max="13" width="11" customWidth="1"/>
-    <col min="14" max="14" width="10.26953125" customWidth="1"/>
+    <col min="14" max="14" width="10.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>15</v>
       </c>
@@ -814,7 +832,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="21"/>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
@@ -830,7 +848,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
@@ -853,7 +871,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>10</v>
       </c>
@@ -876,7 +894,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="17"/>
       <c r="B5" s="12" t="s">
         <v>8</v>
@@ -897,7 +915,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="16"/>
       <c r="B6" s="3" t="s">
         <v>9</v>
@@ -918,7 +936,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>11</v>
       </c>
@@ -941,7 +959,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="15"/>
       <c r="B8" s="12" t="s">
         <v>8</v>
@@ -962,7 +980,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="16"/>
       <c r="B9" s="3" t="s">
         <v>9</v>
@@ -983,7 +1001,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>12</v>
       </c>
@@ -998,7 +1016,7 @@
       <c r="F10" s="6"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="15"/>
       <c r="B11" s="12" t="s">
         <v>8</v>
@@ -1011,7 +1029,7 @@
       <c r="F11" s="6"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="16"/>
       <c r="B12" s="3" t="s">
         <v>9</v>
@@ -1024,42 +1042,72 @@
       <c r="F12" s="7"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="15"/>
       <c r="B14" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="16"/>
       <c r="B15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
         <v>14</v>
       </c>
@@ -1078,7 +1126,7 @@
       <c r="F16" s="6"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="15"/>
       <c r="B17" s="12" t="s">
         <v>8</v>
@@ -1095,7 +1143,7 @@
       <c r="F17" s="6"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="16"/>
       <c r="B18" s="4" t="s">
         <v>9</v>

--- a/Semana 31 agosto - 4 septiembre/Stand_Up_Meeitng_Week_2.xlsx
+++ b/Semana 31 agosto - 4 septiembre/Stand_Up_Meeitng_Week_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mythe\Documents\GitHub\Ingenieria_Software\Semana 31 agosto - 4 septiembre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B187ACA-6493-4328-B45A-BCB01874C653}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A294E7-249B-482C-9C1D-30CB74E8DB21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3320EE79-9243-42E8-8E5F-EF80DE6A9110}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="28">
   <si>
     <t xml:space="preserve"> MIEMBRO</t>
   </si>
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t>Exploner lo planteado y tomar las sugerencias del profe</t>
+  </si>
+  <si>
+    <t>Reunion semanal y asignacion de tareas</t>
   </si>
 </sst>
 </file>
@@ -744,8 +747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E4E8726-24EF-4B21-B937-D55FA5E6EA95}">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -756,7 +759,7 @@
     <col min="4" max="4" width="85.42578125" customWidth="1"/>
     <col min="5" max="5" width="94.42578125" customWidth="1"/>
     <col min="6" max="6" width="54" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" customWidth="1"/>
+    <col min="7" max="7" width="38.7109375" customWidth="1"/>
     <col min="8" max="8" width="13.7109375" customWidth="1"/>
     <col min="9" max="9" width="13.28515625" customWidth="1"/>
     <col min="10" max="10" width="10.7109375" customWidth="1"/>
@@ -877,7 +880,9 @@
       <c r="F7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
@@ -896,7 +901,9 @@
       <c r="F8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="16"/>
@@ -915,7 +922,9 @@
       <c r="F9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="3"/>
+      <c r="G9" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">

--- a/Semana 31 agosto - 4 septiembre/Stand_Up_Meeitng_Week_2.xlsx
+++ b/Semana 31 agosto - 4 septiembre/Stand_Up_Meeitng_Week_2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\57302\Documents\GitHub\Ingenieria_Software\Semana 31 agosto - 4 septiembre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paula\Documents\GitHub\Ingenieria_Software\Semana 31 agosto - 4 septiembre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28DB8914-FA44-4FA7-9086-55727F5CB30B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC5E795-E2E1-46BD-9508-A30FA7CC590F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3320EE79-9243-42E8-8E5F-EF80DE6A9110}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="47">
   <si>
     <t xml:space="preserve"> MIEMBRO</t>
   </si>
@@ -101,9 +101,6 @@
     <t>Nada</t>
   </si>
   <si>
-    <t>Ninguna</t>
-  </si>
-  <si>
     <t>Descargar Adobe XD y trabajar en mis bocetos</t>
   </si>
   <si>
@@ -177,6 +174,21 @@
   </si>
   <si>
     <t xml:space="preserve">Asistir a la reunion y comenzar a bosetear los diagramas </t>
+  </si>
+  <si>
+    <t>Se logró la meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leer sobre el SEMAT </t>
+  </si>
+  <si>
+    <t>Asistir y participar en la reunión de equipo, aportar sobre el IGLUW en el cuaderno.</t>
+  </si>
+  <si>
+    <t>Leer el resumen de SEMAT que realizó Mateo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asistir a la reunión </t>
   </si>
 </sst>
 </file>
@@ -793,7 +805,7 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -879,16 +891,16 @@
         <v>7</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>16</v>
@@ -900,19 +912,19 @@
         <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>33</v>
-      </c>
       <c r="G5" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -930,7 +942,7 @@
         <v>16</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>16</v>
@@ -944,16 +956,16 @@
         <v>7</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>16</v>
@@ -968,16 +980,16 @@
         <v>16</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1011,10 +1023,18 @@
       <c r="C10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="15"/>
@@ -1022,12 +1042,20 @@
         <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="16"/>
@@ -1035,12 +1063,20 @@
         <v>9</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
@@ -1053,13 +1089,13 @@
         <v>16</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>16</v>
@@ -1071,19 +1107,19 @@
         <v>8</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="G14" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1101,7 +1137,7 @@
         <v>16</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>16</v>
@@ -1118,10 +1154,10 @@
         <v>16</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="2"/>
@@ -1132,13 +1168,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="2"/>

--- a/Semana 31 agosto - 4 septiembre/Stand_Up_Meeitng_Week_2.xlsx
+++ b/Semana 31 agosto - 4 septiembre/Stand_Up_Meeitng_Week_2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paula\Documents\GitHub\Ingenieria_Software\Semana 31 agosto - 4 septiembre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guill\Documents\GitHub\Ingenieria_Software\Semana 31 agosto - 4 septiembre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC5E795-E2E1-46BD-9508-A30FA7CC590F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4FB9136-6350-4922-8374-D4A6A228ADF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3320EE79-9243-42E8-8E5F-EF80DE6A9110}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="49">
   <si>
     <t xml:space="preserve"> MIEMBRO</t>
   </si>
@@ -189,6 +189,12 @@
   </si>
   <si>
     <t xml:space="preserve">Asistir a la reunión </t>
+  </si>
+  <si>
+    <t>nada</t>
+  </si>
+  <si>
+    <t>Asistir a reunion</t>
   </si>
 </sst>
 </file>
@@ -805,7 +811,7 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1159,8 +1165,12 @@
       <c r="E16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="2"/>
+      <c r="F16" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="15"/>
@@ -1176,8 +1186,12 @@
       <c r="E17" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="2"/>
+      <c r="F17" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="16"/>
@@ -1193,8 +1207,12 @@
       <c r="E18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="4"/>
+      <c r="F18" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
